--- a/data/nhs-statistics/xlsx/critical_care_occupancy_by_region.xlsx
+++ b/data/nhs-statistics/xlsx/critical_care_occupancy_by_region.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\covid-stats\data\nhs-statistics\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6EBBF-E4EB-4925-AD69-92E18B9A99FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF0F51-AF4A-4B1C-8F5D-9001E43836B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3090" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{4CECAA2C-9F20-45E8-B7E3-F22A6031E417}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{4CECAA2C-9F20-45E8-B7E3-F22A6031E417}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-ga" sheetId="1" r:id="rId1"/>
@@ -477,22 +477,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -504,6 +489,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1961,10 +1961,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -2165,16 +2165,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$AB$3:$AB$69</c:f>
+              <c:f>'sitrep-final'!$AB$3:$AB$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>42</c:v>
                 </c:pt>
@@ -2375,6 +2378,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,10 +2416,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -2614,6 +2620,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,10 +2856,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -3051,6 +3060,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4901,10 +4913,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -5105,16 +5117,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$AB$3:$AB$69</c:f>
+              <c:f>'sitrep-final'!$AB$3:$AB$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>42</c:v>
                 </c:pt>
@@ -5315,6 +5330,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,10 +5368,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -5554,16 +5572,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$X$3:$X$69</c:f>
+              <c:f>'sitrep-final'!$X$3:$X$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>327</c:v>
                 </c:pt>
@@ -5764,6 +5785,9 @@
                 </c:pt>
                 <c:pt idx="66" formatCode="0">
                   <c:v>224.31773514040867</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0">
+                  <c:v>235.71296200621623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5799,10 +5823,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -6003,16 +6027,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$T$3:$T$69</c:f>
+              <c:f>'sitrep-final'!$T$3:$T$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>179</c:v>
                 </c:pt>
@@ -6213,6 +6240,9 @@
                 </c:pt>
                 <c:pt idx="66" formatCode="0">
                   <c:v>63.903681810043508</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0">
+                  <c:v>58.756808990145032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6538,10 +6568,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -6742,16 +6772,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$Z$3:$Z$69</c:f>
+              <c:f>'sitrep-final'!$Z$3:$Z$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -6952,6 +6985,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="#,##0">
+                  <c:v>309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6987,10 +7023,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -7191,6 +7227,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7424,10 +7463,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -7628,6 +7667,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9478,10 +9520,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -9682,16 +9724,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$Z$3:$Z$69</c:f>
+              <c:f>'sitrep-final'!$Z$3:$Z$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -9892,6 +9937,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="#,##0">
+                  <c:v>309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9927,10 +9975,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -10131,16 +10179,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$V$3:$V$69</c:f>
+              <c:f>'sitrep-final'!$V$3:$V$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>192</c:v>
                 </c:pt>
@@ -10341,6 +10392,9 @@
                 </c:pt>
                 <c:pt idx="66" formatCode="0">
                   <c:v>268.0585374926394</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0">
+                  <c:v>295.91034230454432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10376,10 +10430,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -10580,16 +10634,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$R$3:$R$69</c:f>
+              <c:f>'sitrep-final'!$R$3:$R$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>138</c:v>
                 </c:pt>
@@ -10790,6 +10847,9 @@
                 </c:pt>
                 <c:pt idx="66" formatCode="0">
                   <c:v>44.539465008508614</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0">
+                  <c:v>35.229216424340507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13786,10 +13846,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -13990,16 +14050,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$AA$3:$AA$69</c:f>
+              <c:f>'sitrep-final'!$AA$3:$AA$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>142</c:v>
                 </c:pt>
@@ -14200,6 +14263,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="#,##0">
+                  <c:v>1015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14235,10 +14301,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -14439,6 +14505,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14672,10 +14741,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -14876,6 +14945,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15394,10 +15466,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -15598,16 +15670,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$AA$3:$AA$69</c:f>
+              <c:f>'sitrep-final'!$AA$3:$AA$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>142</c:v>
                 </c:pt>
@@ -15808,6 +15883,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="#,##0">
+                  <c:v>1015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15843,10 +15921,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -16047,16 +16125,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$W$3:$W$69</c:f>
+              <c:f>'sitrep-final'!$W$3:$W$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>531</c:v>
                 </c:pt>
@@ -16257,6 +16338,9 @@
                 </c:pt>
                 <c:pt idx="66" formatCode="0">
                   <c:v>194.31315868611227</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0">
+                  <c:v>162.67437457387018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16292,10 +16376,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'sitrep-final'!$A$3:$A$69</c:f>
+              <c:f>'sitrep-final'!$A$3:$A$365</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>44502</c:v>
                 </c:pt>
@@ -16496,16 +16580,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'sitrep-final'!$S$3:$S$69</c:f>
+              <c:f>'sitrep-final'!$S$3:$S$365</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="363"/>
                 <c:pt idx="0">
                   <c:v>250</c:v>
                 </c:pt>
@@ -16706,6 +16793,9 @@
                 </c:pt>
                 <c:pt idx="66" formatCode="0">
                   <c:v>180.20041655804107</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0">
+                  <c:v>183.66302438102252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31586,13 +31676,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5023BA1D-5A68-49FD-98EA-011A9F4D591B}">
-  <dimension ref="A1:FH9"/>
+  <dimension ref="A1:FI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="EQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="EU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FG8" sqref="FG8:FH8"/>
+      <selection pane="bottomRight" activeCell="FI8" sqref="FI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31606,10 +31696,10 @@
     <col min="66" max="96" width="12" bestFit="1" customWidth="1"/>
     <col min="97" max="126" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="127" max="157" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="158" max="164" width="12" bestFit="1" customWidth="1"/>
+    <col min="158" max="165" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:164" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:165" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
@@ -32097,15 +32187,19 @@
         <v>44201</v>
       </c>
       <c r="FG1" s="3">
-        <f t="shared" ref="FG1:FH1" si="0">FF1+1</f>
+        <f t="shared" ref="FG1:FI1" si="0">FF1+1</f>
         <v>44202</v>
       </c>
       <c r="FH1" s="3">
         <f t="shared" si="0"/>
         <v>44203</v>
       </c>
+      <c r="FI1" s="3">
+        <f t="shared" si="0"/>
+        <v>44204</v>
+      </c>
     </row>
-    <row r="2" spans="1:164" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:165" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -32594,8 +32688,11 @@
       <c r="FH2" s="7">
         <v>2654</v>
       </c>
+      <c r="FI2" s="7">
+        <v>2814</v>
+      </c>
     </row>
-    <row r="3" spans="1:164" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:165" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -33082,8 +33179,11 @@
       <c r="FH3" s="13">
         <v>313</v>
       </c>
+      <c r="FI3" s="13">
+        <v>309</v>
+      </c>
     </row>
-    <row r="4" spans="1:164" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:165" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
@@ -33570,8 +33670,11 @@
       <c r="FH4" s="17">
         <v>961</v>
       </c>
+      <c r="FI4" s="17">
+        <v>1015</v>
+      </c>
     </row>
-    <row r="5" spans="1:164" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:165" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -34058,8 +34161,11 @@
       <c r="FH5" s="17">
         <v>383</v>
       </c>
+      <c r="FI5" s="17">
+        <v>439</v>
+      </c>
     </row>
-    <row r="6" spans="1:164" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:165" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -34546,8 +34652,11 @@
       <c r="FH6" s="17">
         <v>208</v>
       </c>
+      <c r="FI6" s="17">
+        <v>221</v>
+      </c>
     </row>
-    <row r="7" spans="1:164" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:165" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -35034,8 +35143,11 @@
       <c r="FH7" s="17">
         <v>260</v>
       </c>
+      <c r="FI7" s="17">
+        <v>285</v>
+      </c>
     </row>
-    <row r="8" spans="1:164" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:165" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -35522,8 +35634,11 @@
       <c r="FH8" s="17">
         <v>417</v>
       </c>
+      <c r="FI8" s="17">
+        <v>421</v>
+      </c>
     </row>
-    <row r="9" spans="1:164" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:165" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -36009,6 +36124,9 @@
       </c>
       <c r="FH9" s="22">
         <v>112</v>
+      </c>
+      <c r="FI9" s="22">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -36161,659 +36279,659 @@
     <col min="131" max="131" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:131" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="27">
+      <c r="F1" s="41">
         <v>44137</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41">
         <f>F1+1</f>
         <v>44138</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41">
         <f>H1+1</f>
         <v>44139</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41">
         <f>J1+1</f>
         <v>44140</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27">
+      <c r="M1" s="41"/>
+      <c r="N1" s="41">
         <f>L1+1</f>
         <v>44141</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41">
         <f>N1+1</f>
         <v>44142</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41">
         <f>P1+1</f>
         <v>44143</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27">
+      <c r="S1" s="41"/>
+      <c r="T1" s="41">
         <v>44144</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41">
         <v>44145</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27">
+      <c r="W1" s="41"/>
+      <c r="X1" s="41">
         <v>44146</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27">
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41">
         <v>44147</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27">
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41">
         <v>44148</v>
       </c>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41">
         <v>44149</v>
       </c>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27">
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41">
         <v>44150</v>
       </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41">
         <v>44151</v>
       </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27">
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41">
         <v>44152</v>
       </c>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27">
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41">
         <v>44153</v>
       </c>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27">
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41">
         <v>44154</v>
       </c>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27">
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41">
         <v>44155</v>
       </c>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27">
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41">
         <v>44156</v>
       </c>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41">
         <v>44157</v>
       </c>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27">
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41">
         <v>44158</v>
       </c>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27">
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41">
         <v>44159</v>
       </c>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27">
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41">
         <v>44160</v>
       </c>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27">
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41">
         <v>44161</v>
       </c>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27">
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41">
         <v>44162</v>
       </c>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27">
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41">
         <v>44163</v>
       </c>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27">
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41">
         <v>44164</v>
       </c>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27">
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41">
         <v>44165</v>
       </c>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="27">
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41">
         <v>44166</v>
       </c>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27">
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41">
         <v>44167</v>
       </c>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27">
+      <c r="BO1" s="41"/>
+      <c r="BP1" s="41">
         <v>44168</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27">
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="41">
         <v>44169</v>
       </c>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27">
+      <c r="BS1" s="41"/>
+      <c r="BT1" s="41">
         <v>44170</v>
       </c>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27">
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41">
         <v>44171</v>
       </c>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="27">
+      <c r="BW1" s="41"/>
+      <c r="BX1" s="41">
         <v>44172</v>
       </c>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27">
+      <c r="BY1" s="41"/>
+      <c r="BZ1" s="41">
         <v>44173</v>
       </c>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27">
+      <c r="CA1" s="41"/>
+      <c r="CB1" s="41">
         <v>44174</v>
       </c>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27">
+      <c r="CC1" s="41"/>
+      <c r="CD1" s="41">
         <v>44175</v>
       </c>
-      <c r="CE1" s="27"/>
-      <c r="CF1" s="27">
+      <c r="CE1" s="41"/>
+      <c r="CF1" s="41">
         <v>44176</v>
       </c>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27">
+      <c r="CG1" s="41"/>
+      <c r="CH1" s="41">
         <v>44177</v>
       </c>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27">
+      <c r="CI1" s="41"/>
+      <c r="CJ1" s="41">
         <v>44178</v>
       </c>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="28">
+      <c r="CK1" s="41"/>
+      <c r="CL1" s="37">
         <v>44179</v>
       </c>
-      <c r="CM1" s="29"/>
-      <c r="CN1" s="28">
+      <c r="CM1" s="38"/>
+      <c r="CN1" s="37">
         <v>44180</v>
       </c>
-      <c r="CO1" s="29"/>
-      <c r="CP1" s="28">
+      <c r="CO1" s="38"/>
+      <c r="CP1" s="37">
         <v>44181</v>
       </c>
-      <c r="CQ1" s="29"/>
-      <c r="CR1" s="28">
+      <c r="CQ1" s="38"/>
+      <c r="CR1" s="37">
         <v>44182</v>
       </c>
-      <c r="CS1" s="29"/>
-      <c r="CT1" s="28">
+      <c r="CS1" s="38"/>
+      <c r="CT1" s="37">
         <v>44183</v>
       </c>
-      <c r="CU1" s="29"/>
-      <c r="CV1" s="28">
+      <c r="CU1" s="38"/>
+      <c r="CV1" s="37">
         <v>44184</v>
       </c>
-      <c r="CW1" s="29"/>
-      <c r="CX1" s="28">
+      <c r="CW1" s="38"/>
+      <c r="CX1" s="37">
         <v>44185</v>
       </c>
-      <c r="CY1" s="29"/>
-      <c r="CZ1" s="28">
+      <c r="CY1" s="38"/>
+      <c r="CZ1" s="37">
         <v>44186</v>
       </c>
-      <c r="DA1" s="29"/>
-      <c r="DB1" s="28">
+      <c r="DA1" s="38"/>
+      <c r="DB1" s="37">
         <v>44187</v>
       </c>
-      <c r="DC1" s="29"/>
-      <c r="DD1" s="28">
+      <c r="DC1" s="38"/>
+      <c r="DD1" s="37">
         <v>44188</v>
       </c>
-      <c r="DE1" s="29"/>
-      <c r="DF1" s="28">
+      <c r="DE1" s="38"/>
+      <c r="DF1" s="37">
         <v>44189</v>
       </c>
-      <c r="DG1" s="29"/>
-      <c r="DH1" s="28">
+      <c r="DG1" s="38"/>
+      <c r="DH1" s="37">
         <v>44190</v>
       </c>
-      <c r="DI1" s="29"/>
-      <c r="DJ1" s="28">
+      <c r="DI1" s="38"/>
+      <c r="DJ1" s="37">
         <v>44191</v>
       </c>
-      <c r="DK1" s="29"/>
-      <c r="DL1" s="28">
+      <c r="DK1" s="38"/>
+      <c r="DL1" s="37">
         <v>44192</v>
       </c>
-      <c r="DM1" s="29"/>
-      <c r="DN1" s="28">
+      <c r="DM1" s="38"/>
+      <c r="DN1" s="37">
         <v>44193</v>
       </c>
-      <c r="DO1" s="29"/>
-      <c r="DP1" s="28">
+      <c r="DO1" s="38"/>
+      <c r="DP1" s="37">
         <v>44194</v>
       </c>
-      <c r="DQ1" s="29"/>
-      <c r="DR1" s="28">
+      <c r="DQ1" s="38"/>
+      <c r="DR1" s="37">
         <v>44195</v>
       </c>
-      <c r="DS1" s="29"/>
-      <c r="DT1" s="28">
+      <c r="DS1" s="38"/>
+      <c r="DT1" s="37">
         <v>44196</v>
       </c>
-      <c r="DU1" s="29"/>
-      <c r="DV1" s="28">
+      <c r="DU1" s="38"/>
+      <c r="DV1" s="37">
         <v>44197</v>
       </c>
-      <c r="DW1" s="29"/>
-      <c r="DX1" s="28">
+      <c r="DW1" s="38"/>
+      <c r="DX1" s="37">
         <v>44198</v>
       </c>
-      <c r="DY1" s="29"/>
-      <c r="DZ1" s="28">
+      <c r="DY1" s="38"/>
+      <c r="DZ1" s="37">
         <v>44199</v>
       </c>
-      <c r="EA1" s="29"/>
+      <c r="EA1" s="38"/>
     </row>
-    <row r="2" spans="1:131" s="35" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:131" s="30" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="Z2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="34" t="s">
+      <c r="AB2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AC2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AD2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="34" t="s">
+      <c r="AE2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AF2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AH2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="34" t="s">
+      <c r="AI2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="34" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AK2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="34" t="s">
+      <c r="AL2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="34" t="s">
+      <c r="AM2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="34" t="s">
+      <c r="AN2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AO2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="34" t="s">
+      <c r="AP2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="34" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AR2" s="34" t="s">
+      <c r="AR2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AS2" s="34" t="s">
+      <c r="AS2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AT2" s="34" t="s">
+      <c r="AT2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AU2" s="34" t="s">
+      <c r="AU2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="34" t="s">
+      <c r="AV2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AW2" s="34" t="s">
+      <c r="AW2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AX2" s="34" t="s">
+      <c r="AX2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AY2" s="34" t="s">
+      <c r="AY2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AZ2" s="34" t="s">
+      <c r="AZ2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BA2" s="34" t="s">
+      <c r="BA2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="34" t="s">
+      <c r="BB2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BC2" s="34" t="s">
+      <c r="BC2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BD2" s="34" t="s">
+      <c r="BD2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BE2" s="34" t="s">
+      <c r="BE2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BF2" s="34" t="s">
+      <c r="BF2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BG2" s="34" t="s">
+      <c r="BG2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="34" t="s">
+      <c r="BH2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BI2" s="34" t="s">
+      <c r="BI2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BJ2" s="34" t="s">
+      <c r="BJ2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BK2" s="34" t="s">
+      <c r="BK2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BL2" s="34" t="s">
+      <c r="BL2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BM2" s="34" t="s">
+      <c r="BM2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="34" t="s">
+      <c r="BN2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BO2" s="34" t="s">
+      <c r="BO2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BP2" s="34" t="s">
+      <c r="BP2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BQ2" s="34" t="s">
+      <c r="BQ2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BR2" s="34" t="s">
+      <c r="BR2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BS2" s="34" t="s">
+      <c r="BS2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="34" t="s">
+      <c r="BT2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="34" t="s">
+      <c r="BU2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BV2" s="34" t="s">
+      <c r="BV2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" s="34" t="s">
+      <c r="BW2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" s="34" t="s">
+      <c r="BX2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BY2" s="34" t="s">
+      <c r="BY2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="34" t="s">
+      <c r="BZ2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CA2" s="34" t="s">
+      <c r="CA2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CB2" s="34" t="s">
+      <c r="CB2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CC2" s="34" t="s">
+      <c r="CC2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CD2" s="34" t="s">
+      <c r="CD2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CE2" s="34" t="s">
+      <c r="CE2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" s="34" t="s">
+      <c r="CF2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CG2" s="34" t="s">
+      <c r="CG2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CH2" s="34" t="s">
+      <c r="CH2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CI2" s="34" t="s">
+      <c r="CI2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CJ2" s="34" t="s">
+      <c r="CJ2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CK2" s="34" t="s">
+      <c r="CK2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CL2" s="34" t="s">
+      <c r="CL2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CM2" s="34" t="s">
+      <c r="CM2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CN2" s="34" t="s">
+      <c r="CN2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CO2" s="34" t="s">
+      <c r="CO2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CP2" s="34" t="s">
+      <c r="CP2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CQ2" s="34" t="s">
+      <c r="CQ2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CR2" s="34" t="s">
+      <c r="CR2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CS2" s="34" t="s">
+      <c r="CS2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CT2" s="34" t="s">
+      <c r="CT2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CU2" s="34" t="s">
+      <c r="CU2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CV2" s="34" t="s">
+      <c r="CV2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CW2" s="34" t="s">
+      <c r="CW2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CX2" s="34" t="s">
+      <c r="CX2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="CY2" s="34" t="s">
+      <c r="CY2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CZ2" s="34" t="s">
+      <c r="CZ2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DA2" s="34" t="s">
+      <c r="DA2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DB2" s="34" t="s">
+      <c r="DB2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DC2" s="34" t="s">
+      <c r="DC2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DD2" s="34" t="s">
+      <c r="DD2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DE2" s="34" t="s">
+      <c r="DE2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DF2" s="34" t="s">
+      <c r="DF2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DG2" s="34" t="s">
+      <c r="DG2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DH2" s="34" t="s">
+      <c r="DH2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DI2" s="34" t="s">
+      <c r="DI2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DJ2" s="34" t="s">
+      <c r="DJ2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DK2" s="34" t="s">
+      <c r="DK2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DL2" s="34" t="s">
+      <c r="DL2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DM2" s="34" t="s">
+      <c r="DM2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DN2" s="34" t="s">
+      <c r="DN2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DO2" s="34" t="s">
+      <c r="DO2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DP2" s="34" t="s">
+      <c r="DP2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DQ2" s="34" t="s">
+      <c r="DQ2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DR2" s="34" t="s">
+      <c r="DR2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DS2" s="34" t="s">
+      <c r="DS2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DT2" s="34" t="s">
+      <c r="DT2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DU2" s="34" t="s">
+      <c r="DU2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DV2" s="34" t="s">
+      <c r="DV2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DW2" s="34" t="s">
+      <c r="DW2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DX2" s="34" t="s">
+      <c r="DX2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="DY2" s="34" t="s">
+      <c r="DY2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="DZ2" s="34" t="s">
+      <c r="DZ2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="EA2" s="34" t="s">
+      <c r="EA2" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -37201,7 +37319,7 @@
       </c>
     </row>
     <row r="4" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
       <c r="F4">
@@ -37967,10 +38085,10 @@
       </c>
     </row>
     <row r="7" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:131" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -39123,6 +39241,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
+    <mergeCell ref="BJ1:BK1"/>
+    <mergeCell ref="CJ1:CK1"/>
+    <mergeCell ref="BN1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
+    <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="BT1:BU1"/>
+    <mergeCell ref="BV1:BW1"/>
+    <mergeCell ref="BX1:BY1"/>
+    <mergeCell ref="BZ1:CA1"/>
+    <mergeCell ref="CB1:CC1"/>
+    <mergeCell ref="CD1:CE1"/>
+    <mergeCell ref="CF1:CG1"/>
+    <mergeCell ref="CH1:CI1"/>
+    <mergeCell ref="DH1:DI1"/>
+    <mergeCell ref="CL1:CM1"/>
+    <mergeCell ref="CN1:CO1"/>
+    <mergeCell ref="CP1:CQ1"/>
+    <mergeCell ref="CR1:CS1"/>
+    <mergeCell ref="CT1:CU1"/>
+    <mergeCell ref="CV1:CW1"/>
     <mergeCell ref="DV1:DW1"/>
     <mergeCell ref="DX1:DY1"/>
     <mergeCell ref="DZ1:EA1"/>
@@ -39139,55 +39306,6 @@
     <mergeCell ref="DB1:DC1"/>
     <mergeCell ref="DD1:DE1"/>
     <mergeCell ref="DF1:DG1"/>
-    <mergeCell ref="DH1:DI1"/>
-    <mergeCell ref="CL1:CM1"/>
-    <mergeCell ref="CN1:CO1"/>
-    <mergeCell ref="CP1:CQ1"/>
-    <mergeCell ref="CR1:CS1"/>
-    <mergeCell ref="CT1:CU1"/>
-    <mergeCell ref="CV1:CW1"/>
-    <mergeCell ref="BZ1:CA1"/>
-    <mergeCell ref="CB1:CC1"/>
-    <mergeCell ref="CD1:CE1"/>
-    <mergeCell ref="CF1:CG1"/>
-    <mergeCell ref="CH1:CI1"/>
-    <mergeCell ref="CJ1:CK1"/>
-    <mergeCell ref="BN1:BO1"/>
-    <mergeCell ref="BP1:BQ1"/>
-    <mergeCell ref="BR1:BS1"/>
-    <mergeCell ref="BT1:BU1"/>
-    <mergeCell ref="BV1:BW1"/>
-    <mergeCell ref="BX1:BY1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BH1:BI1"/>
-    <mergeCell ref="BJ1:BK1"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39211,36 +39329,36 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B3">
@@ -39263,7 +39381,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -39286,7 +39404,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -39309,7 +39427,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -39332,7 +39450,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B7">
@@ -39355,7 +39473,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B8">
@@ -39378,7 +39496,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B9">
@@ -39401,7 +39519,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B10">
@@ -39424,7 +39542,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B11">
@@ -39447,7 +39565,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -39470,7 +39588,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B13">
@@ -39493,7 +39611,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B14">
@@ -39516,7 +39634,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -39539,7 +39657,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -39562,7 +39680,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -39585,7 +39703,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -39608,7 +39726,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -39631,7 +39749,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -39654,7 +39772,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B21">
@@ -39677,7 +39795,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B22">
@@ -39700,7 +39818,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B23">
@@ -39723,7 +39841,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B24">
@@ -39746,7 +39864,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B25">
@@ -39769,7 +39887,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B26">
@@ -39792,7 +39910,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B27">
@@ -39815,7 +39933,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B28">
@@ -39838,7 +39956,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B29">
@@ -39861,7 +39979,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B30">
@@ -39884,7 +40002,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B31">
@@ -39907,7 +40025,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B32">
@@ -39930,7 +40048,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B33">
@@ -39953,7 +40071,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B34">
@@ -39976,7 +40094,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B35">
@@ -39999,7 +40117,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B36">
@@ -40022,7 +40140,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B37">
@@ -40045,7 +40163,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B38">
@@ -40068,7 +40186,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B39">
@@ -40091,7 +40209,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B40">
@@ -40114,7 +40232,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B41">
@@ -40137,7 +40255,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B42">
@@ -40160,7 +40278,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B43">
@@ -40183,7 +40301,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B44">
@@ -40206,7 +40324,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B45">
@@ -40229,7 +40347,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B46">
@@ -40252,7 +40370,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B47">
@@ -40275,7 +40393,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B48">
@@ -40298,7 +40416,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B49">
@@ -40321,7 +40439,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B50">
@@ -40344,7 +40462,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B51">
@@ -40367,7 +40485,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B52">
@@ -40390,7 +40508,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B53">
@@ -40413,7 +40531,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B54">
@@ -40436,7 +40554,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B55">
@@ -40459,7 +40577,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B56">
@@ -40482,7 +40600,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B57">
@@ -40505,7 +40623,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B58">
@@ -40528,7 +40646,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B59">
@@ -40551,7 +40669,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B60">
@@ -40574,7 +40692,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B61">
@@ -40597,7 +40715,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B62">
@@ -40620,7 +40738,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B63">
@@ -40643,7 +40761,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B64">
@@ -40666,7 +40784,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B65">
@@ -40689,7 +40807,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B66">
@@ -40712,7 +40830,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B67">
@@ -40735,7 +40853,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B68">
@@ -40758,7 +40876,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B69">
@@ -40781,7 +40899,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B70">
@@ -40804,7 +40922,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B71">
@@ -40827,7 +40945,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B72">
@@ -40850,7 +40968,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B73">
@@ -40873,7 +40991,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B74">
@@ -40896,7 +41014,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B75">
@@ -40919,7 +41037,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B76">
@@ -40942,7 +41060,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B77">
@@ -40965,7 +41083,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B78">
@@ -40988,7 +41106,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B79">
@@ -41011,7 +41129,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B80">
@@ -41034,7 +41152,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B81">
@@ -41057,7 +41175,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B82">
@@ -41080,7 +41198,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B83">
@@ -41103,7 +41221,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B84">
@@ -41126,7 +41244,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B85">
@@ -41149,7 +41267,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B86">
@@ -41172,7 +41290,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B87">
@@ -41195,7 +41313,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B88">
@@ -41218,7 +41336,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B89">
@@ -41241,7 +41359,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B90">
@@ -41264,7 +41382,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B91">
@@ -41287,7 +41405,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B92">
@@ -41310,7 +41428,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B93">
@@ -41333,7 +41451,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B94">
@@ -41356,7 +41474,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B95">
@@ -41379,7 +41497,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B96">
@@ -41402,7 +41520,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B97">
@@ -41425,7 +41543,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B98">
@@ -41448,7 +41566,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B99">
@@ -41471,7 +41589,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B100">
@@ -41494,7 +41612,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B101">
@@ -41517,7 +41635,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B102">
@@ -41540,7 +41658,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B103">
@@ -41563,7 +41681,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B104">
@@ -41586,7 +41704,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B105">
@@ -41609,7 +41727,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B106">
@@ -41632,7 +41750,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B107">
@@ -41655,7 +41773,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B108">
@@ -41678,7 +41796,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B109">
@@ -41701,7 +41819,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B110">
@@ -41724,7 +41842,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B111">
@@ -41747,7 +41865,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B112">
@@ -41770,7 +41888,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B113">
@@ -41793,7 +41911,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B114">
@@ -41816,7 +41934,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B115">
@@ -41839,7 +41957,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B116">
@@ -41862,7 +41980,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B117">
@@ -41885,7 +42003,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B118">
@@ -41908,7 +42026,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B119">
@@ -41931,7 +42049,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="34" t="s">
+      <c r="A120" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B120">
@@ -41954,7 +42072,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B121">
@@ -41977,7 +42095,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B122">
@@ -42000,7 +42118,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="34" t="s">
+      <c r="A123" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B123">
@@ -42023,7 +42141,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="34" t="s">
+      <c r="A124" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B124">
@@ -42046,7 +42164,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B125">
@@ -42069,7 +42187,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B126">
@@ -42092,7 +42210,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B127">
@@ -42115,7 +42233,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B128">
@@ -42151,109 +42269,109 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B03B66-1C4D-42AC-9323-7001DEBC95A2}">
-  <dimension ref="A1:AB72"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z69" sqref="Z69"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="AB2" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="33">
         <v>44502</v>
       </c>
       <c r="B3">
@@ -42305,15 +42423,15 @@
         <v>179</v>
       </c>
       <c r="V3">
-        <f>N3-Z3</f>
+        <f t="shared" ref="V3:V34" si="2">N3-Z3</f>
         <v>192</v>
       </c>
       <c r="W3">
-        <f>O3-AA3</f>
+        <f t="shared" ref="W3:W34" si="3">O3-AA3</f>
         <v>531</v>
       </c>
       <c r="X3">
-        <f>P3-AB3</f>
+        <f t="shared" ref="X3:X34" si="4">P3-AB3</f>
         <v>327</v>
       </c>
       <c r="Z3">
@@ -42327,7 +42445,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="33">
         <v>44503</v>
       </c>
       <c r="B4">
@@ -42367,7 +42485,7 @@
         <v>391</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R65" si="2">J4-N4</f>
+        <f t="shared" ref="R4:R65" si="5">J4-N4</f>
         <v>125</v>
       </c>
       <c r="S4">
@@ -42379,15 +42497,15 @@
         <v>157</v>
       </c>
       <c r="V4">
-        <f>N4-Z4</f>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="W4">
-        <f>O4-AA4</f>
+        <f t="shared" si="3"/>
         <v>561</v>
       </c>
       <c r="X4">
-        <f>P4-AB4</f>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="Z4">
@@ -42401,7 +42519,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="33">
         <v>44504</v>
       </c>
       <c r="B5">
@@ -42441,7 +42559,7 @@
         <v>392</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="S5">
@@ -42453,15 +42571,15 @@
         <v>161</v>
       </c>
       <c r="V5">
-        <f>N5-Z5</f>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="W5">
-        <f>O5-AA5</f>
+        <f t="shared" si="3"/>
         <v>568</v>
       </c>
       <c r="X5">
-        <f>P5-AB5</f>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
       <c r="Z5">
@@ -42475,7 +42593,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="33">
         <v>44505</v>
       </c>
       <c r="B6">
@@ -42515,7 +42633,7 @@
         <v>397</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="S6">
@@ -42527,15 +42645,15 @@
         <v>141</v>
       </c>
       <c r="V6">
-        <f>N6-Z6</f>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="W6">
-        <f>O6-AA6</f>
+        <f t="shared" si="3"/>
         <v>562</v>
       </c>
       <c r="X6">
-        <f>P6-AB6</f>
+        <f t="shared" si="4"/>
         <v>349</v>
       </c>
       <c r="Z6">
@@ -42549,7 +42667,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="33">
         <v>44506</v>
       </c>
       <c r="B7">
@@ -42589,7 +42707,7 @@
         <v>404</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="S7">
@@ -42601,15 +42719,15 @@
         <v>134</v>
       </c>
       <c r="V7">
-        <f>N7-Z7</f>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="W7">
-        <f>O7-AA7</f>
+        <f t="shared" si="3"/>
         <v>577</v>
       </c>
       <c r="X7">
-        <f>P7-AB7</f>
+        <f t="shared" si="4"/>
         <v>359</v>
       </c>
       <c r="Z7">
@@ -42623,7 +42741,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="33">
         <v>44507</v>
       </c>
       <c r="B8">
@@ -42663,7 +42781,7 @@
         <v>398</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="S8">
@@ -42675,15 +42793,15 @@
         <v>143</v>
       </c>
       <c r="V8">
-        <f>N8-Z8</f>
+        <f t="shared" si="2"/>
         <v>211</v>
       </c>
       <c r="W8">
-        <f>O8-AA8</f>
+        <f t="shared" si="3"/>
         <v>548</v>
       </c>
       <c r="X8">
-        <f>P8-AB8</f>
+        <f t="shared" si="4"/>
         <v>354</v>
       </c>
       <c r="Z8">
@@ -42697,7 +42815,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="33">
         <v>44508</v>
       </c>
       <c r="B9">
@@ -42737,7 +42855,7 @@
         <v>407</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="S9">
@@ -42749,15 +42867,15 @@
         <v>135</v>
       </c>
       <c r="V9">
-        <f>N9-Z9</f>
+        <f t="shared" si="2"/>
         <v>211</v>
       </c>
       <c r="W9">
-        <f>O9-AA9</f>
+        <f t="shared" si="3"/>
         <v>515</v>
       </c>
       <c r="X9">
-        <f>P9-AB9</f>
+        <f t="shared" si="4"/>
         <v>357</v>
       </c>
       <c r="Z9">
@@ -42771,7 +42889,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="33">
         <v>44509</v>
       </c>
       <c r="B10">
@@ -42811,7 +42929,7 @@
         <v>390</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="S10">
@@ -42823,15 +42941,15 @@
         <v>125</v>
       </c>
       <c r="V10">
-        <f>N10-Z10</f>
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="W10">
-        <f>O10-AA10</f>
+        <f t="shared" si="3"/>
         <v>514</v>
       </c>
       <c r="X10">
-        <f>P10-AB10</f>
+        <f t="shared" si="4"/>
         <v>337</v>
       </c>
       <c r="Z10">
@@ -42845,7 +42963,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="33">
         <v>44510</v>
       </c>
       <c r="B11">
@@ -42885,7 +43003,7 @@
         <v>390</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="S11">
@@ -42897,15 +43015,15 @@
         <v>136</v>
       </c>
       <c r="V11">
-        <f>N11-Z11</f>
+        <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="W11">
-        <f>O11-AA11</f>
+        <f t="shared" si="3"/>
         <v>551</v>
       </c>
       <c r="X11">
-        <f>P11-AB11</f>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="Z11">
@@ -42919,7 +43037,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="33">
         <v>44511</v>
       </c>
       <c r="B12">
@@ -42959,7 +43077,7 @@
         <v>398</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="S12">
@@ -42971,15 +43089,15 @@
         <v>133</v>
       </c>
       <c r="V12">
-        <f>N12-Z12</f>
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="W12">
-        <f>O12-AA12</f>
+        <f t="shared" si="3"/>
         <v>566</v>
       </c>
       <c r="X12">
-        <f>P12-AB12</f>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="Z12">
@@ -42993,7 +43111,7 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="33">
         <v>44512</v>
       </c>
       <c r="B13">
@@ -43033,7 +43151,7 @@
         <v>394</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="S13">
@@ -43045,15 +43163,15 @@
         <v>104</v>
       </c>
       <c r="V13">
-        <f>N13-Z13</f>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="W13">
-        <f>O13-AA13</f>
+        <f t="shared" si="3"/>
         <v>569</v>
       </c>
       <c r="X13">
-        <f>P13-AB13</f>
+        <f t="shared" si="4"/>
         <v>336</v>
       </c>
       <c r="Z13">
@@ -43067,7 +43185,7 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="33">
         <v>44513</v>
       </c>
       <c r="B14">
@@ -43107,7 +43225,7 @@
         <v>408</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="S14">
@@ -43119,15 +43237,15 @@
         <v>111</v>
       </c>
       <c r="V14">
-        <f>N14-Z14</f>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="W14">
-        <f>O14-AA14</f>
+        <f t="shared" si="3"/>
         <v>577</v>
       </c>
       <c r="X14">
-        <f>P14-AB14</f>
+        <f t="shared" si="4"/>
         <v>322</v>
       </c>
       <c r="Z14">
@@ -43141,7 +43259,7 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="33">
         <v>44514</v>
       </c>
       <c r="B15">
@@ -43181,7 +43299,7 @@
         <v>391</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="S15">
@@ -43193,15 +43311,15 @@
         <v>126</v>
       </c>
       <c r="V15">
-        <f>N15-Z15</f>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="W15">
-        <f>O15-AA15</f>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="X15">
-        <f>P15-AB15</f>
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="Z15">
@@ -43215,7 +43333,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="33">
         <v>44515</v>
       </c>
       <c r="B16">
@@ -43255,7 +43373,7 @@
         <v>382</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="S16">
@@ -43267,15 +43385,15 @@
         <v>137</v>
       </c>
       <c r="V16">
-        <f>N16-Z16</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="W16">
-        <f>O16-AA16</f>
+        <f t="shared" si="3"/>
         <v>527</v>
       </c>
       <c r="X16">
-        <f>P16-AB16</f>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="Z16">
@@ -43289,7 +43407,7 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="33">
         <v>44516</v>
       </c>
       <c r="B17">
@@ -43329,7 +43447,7 @@
         <v>386</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="S17">
@@ -43341,15 +43459,15 @@
         <v>138</v>
       </c>
       <c r="V17">
-        <f>N17-Z17</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="W17">
-        <f>O17-AA17</f>
+        <f t="shared" si="3"/>
         <v>523</v>
       </c>
       <c r="X17">
-        <f>P17-AB17</f>
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="Z17">
@@ -43363,7 +43481,7 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="33">
         <v>44517</v>
       </c>
       <c r="B18">
@@ -43403,7 +43521,7 @@
         <v>415</v>
       </c>
       <c r="R18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="S18">
@@ -43415,15 +43533,15 @@
         <v>117</v>
       </c>
       <c r="V18">
-        <f>N18-Z18</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="W18">
-        <f>O18-AA18</f>
+        <f t="shared" si="3"/>
         <v>527</v>
       </c>
       <c r="X18">
-        <f>P18-AB18</f>
+        <f t="shared" si="4"/>
         <v>327</v>
       </c>
       <c r="Z18">
@@ -43437,7 +43555,7 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="33">
         <v>44518</v>
       </c>
       <c r="B19">
@@ -43477,7 +43595,7 @@
         <v>424</v>
       </c>
       <c r="R19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="S19">
@@ -43489,15 +43607,15 @@
         <v>109</v>
       </c>
       <c r="V19">
-        <f>N19-Z19</f>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="W19">
-        <f>O19-AA19</f>
+        <f t="shared" si="3"/>
         <v>536</v>
       </c>
       <c r="X19">
-        <f>P19-AB19</f>
+        <f t="shared" si="4"/>
         <v>331</v>
       </c>
       <c r="Z19">
@@ -43511,7 +43629,7 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="33">
         <v>44519</v>
       </c>
       <c r="B20">
@@ -43551,7 +43669,7 @@
         <v>430</v>
       </c>
       <c r="R20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="S20">
@@ -43563,15 +43681,15 @@
         <v>99</v>
       </c>
       <c r="V20">
-        <f>N20-Z20</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="W20">
-        <f>O20-AA20</f>
+        <f t="shared" si="3"/>
         <v>551</v>
       </c>
       <c r="X20">
-        <f>P20-AB20</f>
+        <f t="shared" si="4"/>
         <v>334</v>
       </c>
       <c r="Z20">
@@ -43585,7 +43703,7 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="33">
         <v>44520</v>
       </c>
       <c r="B21">
@@ -43625,7 +43743,7 @@
         <v>430</v>
       </c>
       <c r="R21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="S21">
@@ -43637,15 +43755,15 @@
         <v>104</v>
       </c>
       <c r="V21">
-        <f>N21-Z21</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="W21">
-        <f>O21-AA21</f>
+        <f t="shared" si="3"/>
         <v>548</v>
       </c>
       <c r="X21">
-        <f>P21-AB21</f>
+        <f t="shared" si="4"/>
         <v>336</v>
       </c>
       <c r="Z21">
@@ -43659,7 +43777,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="33">
         <v>44521</v>
       </c>
       <c r="B22">
@@ -43699,7 +43817,7 @@
         <v>415</v>
       </c>
       <c r="R22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="S22">
@@ -43711,15 +43829,15 @@
         <v>125</v>
       </c>
       <c r="V22">
-        <f>N22-Z22</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="W22">
-        <f>O22-AA22</f>
+        <f t="shared" si="3"/>
         <v>510</v>
       </c>
       <c r="X22">
-        <f>P22-AB22</f>
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="Z22">
@@ -43733,7 +43851,7 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="33">
         <v>44522</v>
       </c>
       <c r="B23">
@@ -43773,7 +43891,7 @@
         <v>402</v>
       </c>
       <c r="R23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="S23">
@@ -43785,15 +43903,15 @@
         <v>137</v>
       </c>
       <c r="V23">
-        <f>N23-Z23</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="W23">
-        <f>O23-AA23</f>
+        <f t="shared" si="3"/>
         <v>513</v>
       </c>
       <c r="X23">
-        <f>P23-AB23</f>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="Z23">
@@ -43807,7 +43925,7 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="33">
         <v>44523</v>
       </c>
       <c r="B24">
@@ -43847,7 +43965,7 @@
         <v>398</v>
       </c>
       <c r="R24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="S24">
@@ -43859,15 +43977,15 @@
         <v>136</v>
       </c>
       <c r="V24">
-        <f>N24-Z24</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="W24">
-        <f>O24-AA24</f>
+        <f t="shared" si="3"/>
         <v>505</v>
       </c>
       <c r="X24">
-        <f>P24-AB24</f>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="Z24">
@@ -43881,7 +43999,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="33">
         <v>44524</v>
       </c>
       <c r="B25">
@@ -43921,7 +44039,7 @@
         <v>421</v>
       </c>
       <c r="R25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="S25">
@@ -43933,15 +44051,15 @@
         <v>125</v>
       </c>
       <c r="V25">
-        <f>N25-Z25</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="W25">
-        <f>O25-AA25</f>
+        <f t="shared" si="3"/>
         <v>534</v>
       </c>
       <c r="X25">
-        <f>P25-AB25</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="Z25">
@@ -43955,7 +44073,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="33">
         <v>44525</v>
       </c>
       <c r="B26">
@@ -43995,7 +44113,7 @@
         <v>434</v>
       </c>
       <c r="R26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="S26">
@@ -44007,15 +44125,15 @@
         <v>109</v>
       </c>
       <c r="V26">
-        <f>N26-Z26</f>
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
       <c r="W26">
-        <f>O26-AA26</f>
+        <f t="shared" si="3"/>
         <v>532</v>
       </c>
       <c r="X26">
-        <f>P26-AB26</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="Z26">
@@ -44029,7 +44147,7 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="A27" s="33">
         <v>44526</v>
       </c>
       <c r="B27">
@@ -44069,7 +44187,7 @@
         <v>425</v>
       </c>
       <c r="R27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="S27">
@@ -44081,15 +44199,15 @@
         <v>121</v>
       </c>
       <c r="V27">
-        <f>N27-Z27</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="W27">
-        <f>O27-AA27</f>
+        <f t="shared" si="3"/>
         <v>555</v>
       </c>
       <c r="X27">
-        <f>P27-AB27</f>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="Z27">
@@ -44103,7 +44221,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="33">
         <v>44527</v>
       </c>
       <c r="B28">
@@ -44143,7 +44261,7 @@
         <v>426</v>
       </c>
       <c r="R28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="S28">
@@ -44155,15 +44273,15 @@
         <v>124</v>
       </c>
       <c r="V28">
-        <f>N28-Z28</f>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="W28">
-        <f>O28-AA28</f>
+        <f t="shared" si="3"/>
         <v>552</v>
       </c>
       <c r="X28">
-        <f>P28-AB28</f>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="Z28">
@@ -44177,7 +44295,7 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
+      <c r="A29" s="33">
         <v>44528</v>
       </c>
       <c r="B29">
@@ -44217,7 +44335,7 @@
         <v>435</v>
       </c>
       <c r="R29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="S29">
@@ -44229,15 +44347,15 @@
         <v>128</v>
       </c>
       <c r="V29">
-        <f>N29-Z29</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="W29">
-        <f>O29-AA29</f>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="X29">
-        <f>P29-AB29</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="Z29">
@@ -44251,7 +44369,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="A30" s="33">
         <v>44529</v>
       </c>
       <c r="B30">
@@ -44291,7 +44409,7 @@
         <v>426</v>
       </c>
       <c r="R30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="S30">
@@ -44303,15 +44421,15 @@
         <v>138</v>
       </c>
       <c r="V30">
-        <f>N30-Z30</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="W30">
-        <f>O30-AA30</f>
+        <f t="shared" si="3"/>
         <v>529</v>
       </c>
       <c r="X30">
-        <f>P30-AB30</f>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="Z30">
@@ -44325,7 +44443,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+      <c r="A31" s="33">
         <v>44530</v>
       </c>
       <c r="B31">
@@ -44365,7 +44483,7 @@
         <v>424</v>
       </c>
       <c r="R31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="S31">
@@ -44377,15 +44495,15 @@
         <v>137</v>
       </c>
       <c r="V31">
-        <f>N31-Z31</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="W31">
-        <f>O31-AA31</f>
+        <f t="shared" si="3"/>
         <v>490</v>
       </c>
       <c r="X31">
-        <f>P31-AB31</f>
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="Z31">
@@ -44399,7 +44517,7 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
+      <c r="A32" s="33">
         <v>44531</v>
       </c>
       <c r="B32">
@@ -44439,7 +44557,7 @@
         <v>423</v>
       </c>
       <c r="R32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="S32">
@@ -44451,15 +44569,15 @@
         <v>142</v>
       </c>
       <c r="V32">
-        <f>N32-Z32</f>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="W32">
-        <f>O32-AA32</f>
+        <f t="shared" si="3"/>
         <v>529</v>
       </c>
       <c r="X32">
-        <f>P32-AB32</f>
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="Z32">
@@ -44473,7 +44591,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="A33" s="33">
         <v>44532</v>
       </c>
       <c r="B33">
@@ -44513,7 +44631,7 @@
         <v>433</v>
       </c>
       <c r="R33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="S33">
@@ -44525,15 +44643,15 @@
         <v>129</v>
       </c>
       <c r="V33">
-        <f>N33-Z33</f>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="W33">
-        <f>O33-AA33</f>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="X33">
-        <f>P33-AB33</f>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="Z33">
@@ -44547,7 +44665,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
+      <c r="A34" s="33">
         <v>44533</v>
       </c>
       <c r="B34">
@@ -44587,7 +44705,7 @@
         <v>420</v>
       </c>
       <c r="R34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="S34">
@@ -44599,15 +44717,15 @@
         <v>158</v>
       </c>
       <c r="V34">
-        <f>N34-Z34</f>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="W34">
-        <f>O34-AA34</f>
+        <f t="shared" si="3"/>
         <v>603</v>
       </c>
       <c r="X34">
-        <f>P34-AB34</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="Z34">
@@ -44621,7 +44739,7 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
+      <c r="A35" s="33">
         <v>44534</v>
       </c>
       <c r="B35">
@@ -44661,7 +44779,7 @@
         <v>436</v>
       </c>
       <c r="R35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="S35">
@@ -44673,15 +44791,15 @@
         <v>146</v>
       </c>
       <c r="V35">
-        <f>N35-Z35</f>
+        <f t="shared" ref="V35:V65" si="6">N35-Z35</f>
         <v>208</v>
       </c>
       <c r="W35">
-        <f>O35-AA35</f>
+        <f t="shared" ref="W35:W65" si="7">O35-AA35</f>
         <v>552</v>
       </c>
       <c r="X35">
-        <f>P35-AB35</f>
+        <f t="shared" ref="X35:X65" si="8">P35-AB35</f>
         <v>329</v>
       </c>
       <c r="Z35">
@@ -44695,7 +44813,7 @@
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
+      <c r="A36" s="33">
         <v>44535</v>
       </c>
       <c r="B36">
@@ -44735,7 +44853,7 @@
         <v>435</v>
       </c>
       <c r="R36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="S36">
@@ -44747,15 +44865,15 @@
         <v>142</v>
       </c>
       <c r="V36">
-        <f>N36-Z36</f>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="W36">
-        <f>O36-AA36</f>
+        <f t="shared" si="7"/>
         <v>588</v>
       </c>
       <c r="X36">
-        <f>P36-AB36</f>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="Z36">
@@ -44769,7 +44887,7 @@
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
+      <c r="A37" s="33">
         <v>44536</v>
       </c>
       <c r="B37">
@@ -44809,7 +44927,7 @@
         <v>410</v>
       </c>
       <c r="R37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="S37">
@@ -44821,15 +44939,15 @@
         <v>152</v>
       </c>
       <c r="V37">
-        <f>N37-Z37</f>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="W37">
-        <f>O37-AA37</f>
+        <f t="shared" si="7"/>
         <v>603</v>
       </c>
       <c r="X37">
-        <f>P37-AB37</f>
+        <f t="shared" si="8"/>
         <v>305</v>
       </c>
       <c r="Z37">
@@ -44843,7 +44961,7 @@
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="A38" s="33">
         <v>44537</v>
       </c>
       <c r="B38">
@@ -44883,7 +45001,7 @@
         <v>407</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="S38">
@@ -44895,15 +45013,15 @@
         <v>153</v>
       </c>
       <c r="V38">
-        <f>N38-Z38</f>
+        <f t="shared" si="6"/>
         <v>197</v>
       </c>
       <c r="W38">
-        <f>O38-AA38</f>
+        <f t="shared" si="7"/>
         <v>575</v>
       </c>
       <c r="X38">
-        <f>P38-AB38</f>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="Z38">
@@ -44917,7 +45035,7 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="33">
         <v>44538</v>
       </c>
       <c r="B39">
@@ -44957,7 +45075,7 @@
         <v>428</v>
       </c>
       <c r="R39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="S39">
@@ -44969,15 +45087,15 @@
         <v>136</v>
       </c>
       <c r="V39">
-        <f>N39-Z39</f>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="W39">
-        <f>O39-AA39</f>
+        <f t="shared" si="7"/>
         <v>587</v>
       </c>
       <c r="X39">
-        <f>P39-AB39</f>
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="Z39">
@@ -44991,7 +45109,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+      <c r="A40" s="33">
         <v>44539</v>
       </c>
       <c r="B40">
@@ -45031,7 +45149,7 @@
         <v>433</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="S40">
@@ -45043,15 +45161,15 @@
         <v>135</v>
       </c>
       <c r="V40">
-        <f>N40-Z40</f>
+        <f t="shared" si="6"/>
         <v>213</v>
       </c>
       <c r="W40">
-        <f>O40-AA40</f>
+        <f t="shared" si="7"/>
         <v>612</v>
       </c>
       <c r="X40">
-        <f>P40-AB40</f>
+        <f t="shared" si="8"/>
         <v>314</v>
       </c>
       <c r="Z40">
@@ -45065,7 +45183,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
+      <c r="A41" s="33">
         <v>44540</v>
       </c>
       <c r="B41">
@@ -45105,7 +45223,7 @@
         <v>444</v>
       </c>
       <c r="R41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="S41">
@@ -45117,15 +45235,15 @@
         <v>128</v>
       </c>
       <c r="V41">
-        <f>N41-Z41</f>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="W41">
-        <f>O41-AA41</f>
+        <f t="shared" si="7"/>
         <v>616</v>
       </c>
       <c r="X41">
-        <f>P41-AB41</f>
+        <f t="shared" si="8"/>
         <v>324</v>
       </c>
       <c r="Z41">
@@ -45139,7 +45257,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="A42" s="33">
         <v>44541</v>
       </c>
       <c r="B42">
@@ -45179,7 +45297,7 @@
         <v>439</v>
       </c>
       <c r="R42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="S42">
@@ -45191,15 +45309,15 @@
         <v>135</v>
       </c>
       <c r="V42">
-        <f>N42-Z42</f>
+        <f t="shared" si="6"/>
         <v>204</v>
       </c>
       <c r="W42">
-        <f>O42-AA42</f>
+        <f t="shared" si="7"/>
         <v>579</v>
       </c>
       <c r="X42">
-        <f>P42-AB42</f>
+        <f t="shared" si="8"/>
         <v>319</v>
       </c>
       <c r="Z42">
@@ -45213,7 +45331,7 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="A43" s="33">
         <v>44542</v>
       </c>
       <c r="B43">
@@ -45253,7 +45371,7 @@
         <v>428</v>
       </c>
       <c r="R43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="S43">
@@ -45265,15 +45383,15 @@
         <v>144</v>
       </c>
       <c r="V43">
-        <f>N43-Z43</f>
+        <f t="shared" si="6"/>
         <v>211</v>
       </c>
       <c r="W43">
-        <f>O43-AA43</f>
+        <f t="shared" si="7"/>
         <v>555</v>
       </c>
       <c r="X43">
-        <f>P43-AB43</f>
+        <f t="shared" si="8"/>
         <v>303</v>
       </c>
       <c r="Z43">
@@ -45287,7 +45405,7 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
+      <c r="A44" s="33">
         <v>44543</v>
       </c>
       <c r="B44">
@@ -45327,7 +45445,7 @@
         <v>426</v>
       </c>
       <c r="R44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="S44">
@@ -45339,15 +45457,15 @@
         <v>140</v>
       </c>
       <c r="V44">
-        <f>N44-Z44</f>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="W44">
-        <f>O44-AA44</f>
+        <f t="shared" si="7"/>
         <v>584</v>
       </c>
       <c r="X44">
-        <f>P44-AB44</f>
+        <f t="shared" si="8"/>
         <v>301</v>
       </c>
       <c r="Z44">
@@ -45361,7 +45479,7 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="38">
+      <c r="A45" s="33">
         <v>44544</v>
       </c>
       <c r="B45">
@@ -45401,7 +45519,7 @@
         <v>436</v>
       </c>
       <c r="R45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="S45">
@@ -45413,15 +45531,15 @@
         <v>140</v>
       </c>
       <c r="V45">
-        <f>N45-Z45</f>
+        <f t="shared" si="6"/>
         <v>213</v>
       </c>
       <c r="W45">
-        <f>O45-AA45</f>
+        <f t="shared" si="7"/>
         <v>553</v>
       </c>
       <c r="X45">
-        <f>P45-AB45</f>
+        <f t="shared" si="8"/>
         <v>293</v>
       </c>
       <c r="Z45">
@@ -45435,7 +45553,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="38">
+      <c r="A46" s="33">
         <v>44545</v>
       </c>
       <c r="B46">
@@ -45475,7 +45593,7 @@
         <v>455</v>
       </c>
       <c r="R46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="S46">
@@ -45487,15 +45605,15 @@
         <v>102</v>
       </c>
       <c r="V46">
-        <f>N46-Z46</f>
+        <f t="shared" si="6"/>
         <v>236</v>
       </c>
       <c r="W46">
-        <f>O46-AA46</f>
+        <f t="shared" si="7"/>
         <v>564</v>
       </c>
       <c r="X46">
-        <f>P46-AB46</f>
+        <f t="shared" si="8"/>
         <v>305</v>
       </c>
       <c r="Z46">
@@ -45509,7 +45627,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
+      <c r="A47" s="33">
         <v>44546</v>
       </c>
       <c r="B47">
@@ -45549,7 +45667,7 @@
         <v>462</v>
       </c>
       <c r="R47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="S47">
@@ -45561,15 +45679,15 @@
         <v>99</v>
       </c>
       <c r="V47">
-        <f>N47-Z47</f>
+        <f t="shared" si="6"/>
         <v>235</v>
       </c>
       <c r="W47">
-        <f>O47-AA47</f>
+        <f t="shared" si="7"/>
         <v>591</v>
       </c>
       <c r="X47">
-        <f>P47-AB47</f>
+        <f t="shared" si="8"/>
         <v>311</v>
       </c>
       <c r="Z47">
@@ -45583,7 +45701,7 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
+      <c r="A48" s="33">
         <v>44547</v>
       </c>
       <c r="B48">
@@ -45623,7 +45741,7 @@
         <v>447</v>
       </c>
       <c r="R48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="S48">
@@ -45635,15 +45753,15 @@
         <v>103</v>
       </c>
       <c r="V48">
-        <f>N48-Z48</f>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="W48">
-        <f>O48-AA48</f>
+        <f t="shared" si="7"/>
         <v>576</v>
       </c>
       <c r="X48">
-        <f>P48-AB48</f>
+        <f t="shared" si="8"/>
         <v>288</v>
       </c>
       <c r="Z48">
@@ -45657,7 +45775,7 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="38">
+      <c r="A49" s="33">
         <v>44548</v>
       </c>
       <c r="B49">
@@ -45697,7 +45815,7 @@
         <v>475</v>
       </c>
       <c r="R49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="S49">
@@ -45709,15 +45827,15 @@
         <v>103</v>
       </c>
       <c r="V49">
-        <f>N49-Z49</f>
+        <f t="shared" si="6"/>
         <v>221</v>
       </c>
       <c r="W49">
-        <f>O49-AA49</f>
+        <f t="shared" si="7"/>
         <v>576</v>
       </c>
       <c r="X49">
-        <f>P49-AB49</f>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="Z49">
@@ -45731,7 +45849,7 @@
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="38">
+      <c r="A50" s="33">
         <v>44549</v>
       </c>
       <c r="B50">
@@ -45771,7 +45889,7 @@
         <v>473</v>
       </c>
       <c r="R50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="S50">
@@ -45783,15 +45901,15 @@
         <v>110</v>
       </c>
       <c r="V50">
-        <f>N50-Z50</f>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="W50">
-        <f>O50-AA50</f>
+        <f t="shared" si="7"/>
         <v>570</v>
       </c>
       <c r="X50">
-        <f>P50-AB50</f>
+        <f t="shared" si="8"/>
         <v>305</v>
       </c>
       <c r="Z50">
@@ -45805,7 +45923,7 @@
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
+      <c r="A51" s="33">
         <v>44550</v>
       </c>
       <c r="B51">
@@ -45845,7 +45963,7 @@
         <v>441</v>
       </c>
       <c r="R51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="S51">
@@ -45857,15 +45975,15 @@
         <v>142</v>
       </c>
       <c r="V51">
-        <f>N51-Z51</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="W51">
-        <f>O51-AA51</f>
+        <f t="shared" si="7"/>
         <v>523</v>
       </c>
       <c r="X51">
-        <f>P51-AB51</f>
+        <f t="shared" si="8"/>
         <v>258</v>
       </c>
       <c r="Z51">
@@ -45879,7 +45997,7 @@
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="38">
+      <c r="A52" s="33">
         <v>44551</v>
       </c>
       <c r="B52">
@@ -45919,7 +46037,7 @@
         <v>449</v>
       </c>
       <c r="R52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="S52">
@@ -45931,15 +46049,15 @@
         <v>130</v>
       </c>
       <c r="V52">
-        <f>N52-Z52</f>
+        <f t="shared" si="6"/>
         <v>223</v>
       </c>
       <c r="W52">
-        <f>O52-AA52</f>
+        <f t="shared" si="7"/>
         <v>524</v>
       </c>
       <c r="X52">
-        <f>P52-AB52</f>
+        <f t="shared" si="8"/>
         <v>253</v>
       </c>
       <c r="Z52">
@@ -45953,7 +46071,7 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
+      <c r="A53" s="33">
         <v>44552</v>
       </c>
       <c r="B53">
@@ -45993,7 +46111,7 @@
         <v>461</v>
       </c>
       <c r="R53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="S53">
@@ -46005,15 +46123,15 @@
         <v>125</v>
       </c>
       <c r="V53">
-        <f>N53-Z53</f>
+        <f t="shared" si="6"/>
         <v>217</v>
       </c>
       <c r="W53">
-        <f>O53-AA53</f>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="X53">
-        <f>P53-AB53</f>
+        <f t="shared" si="8"/>
         <v>264</v>
       </c>
       <c r="Z53">
@@ -46027,7 +46145,7 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="38">
+      <c r="A54" s="33">
         <v>44553</v>
       </c>
       <c r="B54">
@@ -46067,7 +46185,7 @@
         <v>478</v>
       </c>
       <c r="R54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="S54">
@@ -46079,15 +46197,15 @@
         <v>112</v>
       </c>
       <c r="V54">
-        <f>N54-Z54</f>
+        <f t="shared" si="6"/>
         <v>249</v>
       </c>
       <c r="W54">
-        <f>O54-AA54</f>
+        <f t="shared" si="7"/>
         <v>523</v>
       </c>
       <c r="X54">
-        <f>P54-AB54</f>
+        <f t="shared" si="8"/>
         <v>269</v>
       </c>
       <c r="Z54">
@@ -46101,7 +46219,7 @@
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="38">
+      <c r="A55" s="33">
         <v>44554</v>
       </c>
       <c r="B55">
@@ -46141,7 +46259,7 @@
         <v>480</v>
       </c>
       <c r="R55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="S55">
@@ -46153,15 +46271,15 @@
         <v>106</v>
       </c>
       <c r="V55">
-        <f>N55-Z55</f>
+        <f t="shared" si="6"/>
         <v>242</v>
       </c>
       <c r="W55">
-        <f>O55-AA55</f>
+        <f t="shared" si="7"/>
         <v>447</v>
       </c>
       <c r="X55">
-        <f>P55-AB55</f>
+        <f t="shared" si="8"/>
         <v>263</v>
       </c>
       <c r="Z55">
@@ -46175,7 +46293,7 @@
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="38">
+      <c r="A56" s="33">
         <v>44555</v>
       </c>
       <c r="B56">
@@ -46215,7 +46333,7 @@
         <v>449</v>
       </c>
       <c r="R56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="S56">
@@ -46227,15 +46345,15 @@
         <v>141</v>
       </c>
       <c r="V56">
-        <f>N56-Z56</f>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
       <c r="W56">
-        <f>O56-AA56</f>
+        <f t="shared" si="7"/>
         <v>486</v>
       </c>
       <c r="X56">
-        <f>P56-AB56</f>
+        <f t="shared" si="8"/>
         <v>229</v>
       </c>
       <c r="Z56">
@@ -46249,7 +46367,7 @@
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="38">
+      <c r="A57" s="33">
         <v>44556</v>
       </c>
       <c r="B57">
@@ -46289,7 +46407,7 @@
         <v>441</v>
       </c>
       <c r="R57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="S57">
@@ -46301,15 +46419,15 @@
         <v>148</v>
       </c>
       <c r="V57">
-        <f>N57-Z57</f>
+        <f t="shared" si="6"/>
         <v>234</v>
       </c>
       <c r="W57">
-        <f>O57-AA57</f>
+        <f t="shared" si="7"/>
         <v>425</v>
       </c>
       <c r="X57">
-        <f>P57-AB57</f>
+        <f t="shared" si="8"/>
         <v>212</v>
       </c>
       <c r="Z57">
@@ -46323,7 +46441,7 @@
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="38">
+      <c r="A58" s="33">
         <v>44557</v>
       </c>
       <c r="B58">
@@ -46363,7 +46481,7 @@
         <v>464</v>
       </c>
       <c r="R58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="S58">
@@ -46375,15 +46493,15 @@
         <v>142</v>
       </c>
       <c r="V58">
-        <f>N58-Z58</f>
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
       <c r="W58">
-        <f>O58-AA58</f>
+        <f t="shared" si="7"/>
         <v>403</v>
       </c>
       <c r="X58">
-        <f>P58-AB58</f>
+        <f t="shared" si="8"/>
         <v>217</v>
       </c>
       <c r="Z58">
@@ -46397,7 +46515,7 @@
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="38">
+      <c r="A59" s="33">
         <v>44558</v>
       </c>
       <c r="B59">
@@ -46437,7 +46555,7 @@
         <v>491</v>
       </c>
       <c r="R59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="S59">
@@ -46449,15 +46567,15 @@
         <v>122</v>
       </c>
       <c r="V59">
-        <f>N59-Z59</f>
+        <f t="shared" si="6"/>
         <v>242</v>
       </c>
       <c r="W59">
-        <f>O59-AA59</f>
+        <f t="shared" si="7"/>
         <v>421</v>
       </c>
       <c r="X59">
-        <f>P59-AB59</f>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="Z59">
@@ -46471,7 +46589,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="38">
+      <c r="A60" s="33">
         <v>44559</v>
       </c>
       <c r="B60">
@@ -46511,7 +46629,7 @@
         <v>537</v>
       </c>
       <c r="R60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="S60">
@@ -46523,15 +46641,15 @@
         <v>112</v>
       </c>
       <c r="V60">
-        <f>N60-Z60</f>
+        <f t="shared" si="6"/>
         <v>247</v>
       </c>
       <c r="W60">
-        <f>O60-AA60</f>
+        <f t="shared" si="7"/>
         <v>374</v>
       </c>
       <c r="X60">
-        <f>P60-AB60</f>
+        <f t="shared" si="8"/>
         <v>253</v>
       </c>
       <c r="Z60">
@@ -46545,7 +46663,7 @@
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="38">
+      <c r="A61" s="33">
         <v>44560</v>
       </c>
       <c r="B61">
@@ -46585,7 +46703,7 @@
         <v>551</v>
       </c>
       <c r="R61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="S61">
@@ -46597,15 +46715,15 @@
         <v>82</v>
       </c>
       <c r="V61">
-        <f>N61-Z61</f>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="W61">
-        <f>O61-AA61</f>
+        <f t="shared" si="7"/>
         <v>372</v>
       </c>
       <c r="X61">
-        <f>P61-AB61</f>
+        <f t="shared" si="8"/>
         <v>261</v>
       </c>
       <c r="Z61">
@@ -46619,7 +46737,7 @@
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="38">
+      <c r="A62" s="33">
         <v>44561</v>
       </c>
       <c r="B62">
@@ -46659,7 +46777,7 @@
         <v>564</v>
       </c>
       <c r="R62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="S62">
@@ -46671,15 +46789,15 @@
         <v>95</v>
       </c>
       <c r="V62">
-        <f>N62-Z62</f>
+        <f t="shared" si="6"/>
         <v>268</v>
       </c>
       <c r="W62">
-        <f>O62-AA62</f>
+        <f t="shared" si="7"/>
         <v>378</v>
       </c>
       <c r="X62">
-        <f>P62-AB62</f>
+        <f t="shared" si="8"/>
         <v>263</v>
       </c>
       <c r="Z62">
@@ -46693,7 +46811,7 @@
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="38">
+      <c r="A63" s="33">
         <v>44562</v>
       </c>
       <c r="B63">
@@ -46733,7 +46851,7 @@
         <v>560</v>
       </c>
       <c r="R63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="S63">
@@ -46745,15 +46863,15 @@
         <v>101</v>
       </c>
       <c r="V63">
-        <f>N63-Z63</f>
+        <f t="shared" si="6"/>
         <v>265</v>
       </c>
       <c r="W63">
-        <f>O63-AA63</f>
+        <f t="shared" si="7"/>
         <v>395</v>
       </c>
       <c r="X63">
-        <f>P63-AB63</f>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="Z63">
@@ -46767,7 +46885,7 @@
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="38">
+      <c r="A64" s="33">
         <v>44563</v>
       </c>
       <c r="B64">
@@ -46807,7 +46925,7 @@
         <v>565</v>
       </c>
       <c r="R64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="S64">
@@ -46819,15 +46937,15 @@
         <v>112</v>
       </c>
       <c r="V64">
-        <f>N64-Z64</f>
+        <f t="shared" si="6"/>
         <v>264</v>
       </c>
       <c r="W64">
-        <f>O64-AA64</f>
+        <f t="shared" si="7"/>
         <v>342</v>
       </c>
       <c r="X64">
-        <f>P64-AB64</f>
+        <f t="shared" si="8"/>
         <v>232</v>
       </c>
       <c r="Z64">
@@ -46841,7 +46959,7 @@
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="38">
+      <c r="A65" s="33">
         <v>44564</v>
       </c>
       <c r="B65">
@@ -46880,29 +46998,29 @@
       <c r="P65">
         <v>585</v>
       </c>
-      <c r="R65" s="41">
-        <f t="shared" si="2"/>
+      <c r="R65" s="36">
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="S65" s="41">
+      <c r="S65" s="36">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="T65" s="41">
+      <c r="T65" s="36">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41">
-        <f>N65-Z65</f>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36">
+        <f t="shared" si="6"/>
         <v>278</v>
       </c>
-      <c r="W65" s="41">
-        <f>O65-AA65</f>
+      <c r="W65" s="36">
+        <f t="shared" si="7"/>
         <v>314</v>
       </c>
-      <c r="X65" s="41">
-        <f>P65-AB65</f>
+      <c r="X65" s="36">
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="Z65">
@@ -46916,56 +47034,56 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="38">
+      <c r="A66" s="33">
         <v>44565</v>
       </c>
-      <c r="J66" s="40">
+      <c r="J66" s="35">
         <f>J65*((J65/J51-1)^1/14+1)</f>
         <v>583.81466255566977</v>
       </c>
-      <c r="K66" s="40">
-        <f t="shared" ref="K66:L66" si="3">K65*((K65/K51-1)^1/14+1)</f>
+      <c r="K66" s="35">
+        <f t="shared" ref="K66:L66" si="9">K65*((K65/K51-1)^1/14+1)</f>
         <v>1267.1826401446656</v>
       </c>
-      <c r="L66" s="40">
-        <f t="shared" si="3"/>
+      <c r="L66" s="35">
+        <f t="shared" si="9"/>
         <v>679.32761578044597</v>
       </c>
-      <c r="N66" s="40">
-        <f t="shared" ref="N66:P66" si="4">N65*((N65/N51-1)^1/14+1)</f>
+      <c r="N66" s="35">
+        <f t="shared" ref="N66:P66" si="10">N65*((N65/N51-1)^1/14+1)</f>
         <v>519.46372239747632</v>
       </c>
-      <c r="O66" s="40">
-        <f t="shared" si="4"/>
+      <c r="O66" s="35">
+        <f t="shared" si="10"/>
         <v>1104.376830458835</v>
       </c>
-      <c r="P66" s="40">
-        <f t="shared" si="4"/>
+      <c r="P66" s="35">
+        <f t="shared" si="10"/>
         <v>598.6443148688046</v>
       </c>
-      <c r="R66" s="40">
-        <f t="shared" ref="R66:R67" si="5">J66-N66</f>
+      <c r="R66" s="35">
+        <f t="shared" ref="R66:R67" si="11">J66-N66</f>
         <v>64.350940158193453</v>
       </c>
-      <c r="S66" s="40">
-        <f t="shared" ref="S66:S67" si="6">K66-O66</f>
+      <c r="S66" s="35">
+        <f t="shared" ref="S66:S67" si="12">K66-O66</f>
         <v>162.80580968583058</v>
       </c>
-      <c r="T66" s="40">
-        <f t="shared" ref="T66:T67" si="7">L66-P66</f>
+      <c r="T66" s="35">
+        <f t="shared" ref="T66:T67" si="13">L66-P66</f>
         <v>80.683300911641368</v>
       </c>
-      <c r="U66" s="41"/>
-      <c r="V66" s="40">
-        <f t="shared" ref="V66:V67" si="8">N66-Z66</f>
+      <c r="U66" s="36"/>
+      <c r="V66" s="35">
+        <f t="shared" ref="V66:V67" si="14">N66-Z66</f>
         <v>258.46372239747632</v>
       </c>
-      <c r="W66" s="40">
-        <f t="shared" ref="W66:W67" si="9">O66-AA66</f>
+      <c r="W66" s="35">
+        <f t="shared" ref="W66:W67" si="15">O66-AA66</f>
         <v>290.376830458835</v>
       </c>
-      <c r="X66" s="40">
-        <f t="shared" ref="X66:X67" si="10">P66-AB66</f>
+      <c r="X66" s="35">
+        <f t="shared" ref="X66:X67" si="16">P66-AB66</f>
         <v>242.6443148688046</v>
       </c>
       <c r="Z66">
@@ -46979,56 +47097,56 @@
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="38">
+      <c r="A67" s="33">
         <v>44566</v>
       </c>
-      <c r="J67" s="40">
-        <f t="shared" ref="J67:L68" si="11">J66*((J66/J52-1)^1/14+1)</f>
+      <c r="J67" s="35">
+        <f t="shared" ref="J67:L68" si="17">J66*((J66/J52-1)^1/14+1)</f>
         <v>597.1943457110325</v>
       </c>
-      <c r="K67" s="40">
+      <c r="K67" s="35">
+        <f t="shared" si="17"/>
+        <v>1290.1182197898365</v>
+      </c>
+      <c r="L67" s="35">
+        <f t="shared" si="17"/>
+        <v>687.73562466584769</v>
+      </c>
+      <c r="N67" s="35">
+        <f t="shared" ref="N67:P68" si="18">N66*((N66/N52-1)^1/14+1)</f>
+        <v>538.55295648841923</v>
+      </c>
+      <c r="O67" s="35">
+        <f t="shared" si="18"/>
+        <v>1122.0756174861103</v>
+      </c>
+      <c r="P67" s="35">
+        <f t="shared" si="18"/>
+        <v>612.89562227393458</v>
+      </c>
+      <c r="R67" s="35">
         <f t="shared" si="11"/>
-        <v>1290.1182197898365</v>
-      </c>
-      <c r="L67" s="40">
-        <f t="shared" si="11"/>
-        <v>687.73562466584769</v>
-      </c>
-      <c r="N67" s="40">
-        <f t="shared" ref="N67:P68" si="12">N66*((N66/N52-1)^1/14+1)</f>
-        <v>538.55295648841923</v>
-      </c>
-      <c r="O67" s="40">
+        <v>58.64138922261327</v>
+      </c>
+      <c r="S67" s="35">
         <f t="shared" si="12"/>
-        <v>1122.0756174861103</v>
-      </c>
-      <c r="P67" s="40">
-        <f t="shared" si="12"/>
-        <v>612.89562227393458</v>
-      </c>
-      <c r="R67" s="40">
-        <f t="shared" si="5"/>
-        <v>58.64138922261327</v>
-      </c>
-      <c r="S67" s="40">
-        <f t="shared" si="6"/>
         <v>168.0426023037262</v>
       </c>
-      <c r="T67" s="40">
-        <f t="shared" si="7"/>
+      <c r="T67" s="35">
+        <f t="shared" si="13"/>
         <v>74.840002391913117</v>
       </c>
-      <c r="U67" s="41"/>
-      <c r="V67" s="40">
-        <f t="shared" si="8"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="35">
+        <f t="shared" si="14"/>
         <v>297.55295648841923</v>
       </c>
-      <c r="W67" s="40">
-        <f t="shared" si="9"/>
+      <c r="W67" s="35">
+        <f t="shared" si="15"/>
         <v>256.07561748611033</v>
       </c>
-      <c r="X67" s="40">
-        <f t="shared" si="10"/>
+      <c r="X67" s="35">
+        <f t="shared" si="16"/>
         <v>248.89562227393458</v>
       </c>
       <c r="Z67">
@@ -47042,55 +47160,55 @@
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="38">
+      <c r="A68" s="33">
         <v>44567</v>
       </c>
-      <c r="J68" s="40">
+      <c r="J68" s="35">
         <f>J67*((J67/J53-1)^1/14+1)</f>
         <v>611.91229890497232</v>
       </c>
-      <c r="K68" s="40">
-        <f t="shared" si="11"/>
+      <c r="K68" s="35">
+        <f t="shared" si="17"/>
         <v>1311.4078276615614</v>
       </c>
-      <c r="L68" s="40">
-        <f t="shared" si="11"/>
+      <c r="L68" s="35">
+        <f t="shared" si="17"/>
         <v>696.26405145525985</v>
       </c>
-      <c r="N68" s="40">
-        <f t="shared" si="12"/>
+      <c r="N68" s="35">
+        <f t="shared" si="18"/>
         <v>560.30899259938292</v>
       </c>
-      <c r="O68" s="40">
-        <f t="shared" si="12"/>
+      <c r="O68" s="35">
+        <f t="shared" si="18"/>
         <v>1137.6001319937011</v>
       </c>
-      <c r="P68" s="40">
-        <f t="shared" si="12"/>
+      <c r="P68" s="35">
+        <f t="shared" si="18"/>
         <v>627.32019028358286</v>
       </c>
-      <c r="R68" s="40">
-        <f t="shared" ref="R68:R69" si="13">J68-N68</f>
+      <c r="R68" s="35">
+        <f t="shared" ref="R68:R69" si="19">J68-N68</f>
         <v>51.603306305589399</v>
       </c>
-      <c r="S68" s="40">
-        <f t="shared" ref="S68:S69" si="14">K68-O68</f>
+      <c r="S68" s="35">
+        <f t="shared" ref="S68:S69" si="20">K68-O68</f>
         <v>173.80769566786034</v>
       </c>
-      <c r="T68" s="40">
-        <f t="shared" ref="T68:T69" si="15">L68-P68</f>
+      <c r="T68" s="35">
+        <f t="shared" ref="T68:T69" si="21">L68-P68</f>
         <v>68.943861171676986</v>
       </c>
-      <c r="V68" s="40">
-        <f t="shared" ref="V68:V69" si="16">N68-Z68</f>
+      <c r="V68" s="35">
+        <f t="shared" ref="V68:V69" si="22">N68-Z68</f>
         <v>269.30899259938292</v>
       </c>
-      <c r="W68" s="40">
-        <f t="shared" ref="W68:W69" si="17">O68-AA68</f>
+      <c r="W68" s="35">
+        <f t="shared" ref="W68:W69" si="23">O68-AA68</f>
         <v>229.6001319937011</v>
       </c>
-      <c r="X68" s="40">
-        <f t="shared" ref="X68:X69" si="18">P68-AB68</f>
+      <c r="X68" s="35">
+        <f t="shared" ref="X68:X69" si="24">P68-AB68</f>
         <v>233.32019028358286</v>
       </c>
       <c r="Z68">
@@ -47103,56 +47221,57 @@
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="38">
+    <row r="69" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
+        <f>A68+1</f>
         <v>44568</v>
       </c>
-      <c r="J69" s="40">
-        <f t="shared" ref="J69" si="19">J68*((J68/J54-1)^1/14+1)</f>
+      <c r="J69" s="35">
+        <f t="shared" ref="J69:J70" si="25">J68*((J68/J54-1)^1/14+1)</f>
         <v>625.59800250114802</v>
       </c>
-      <c r="K69" s="40">
-        <f t="shared" ref="K69" si="20">K68*((K68/K54-1)^1/14+1)</f>
+      <c r="K69" s="35">
+        <f t="shared" ref="K69:K70" si="26">K68*((K68/K54-1)^1/14+1)</f>
         <v>1335.5135752441533</v>
       </c>
-      <c r="L69" s="40">
-        <f t="shared" ref="L69" si="21">L68*((L68/L54-1)^1/14+1)</f>
+      <c r="L69" s="35">
+        <f t="shared" ref="L69:L70" si="27">L68*((L68/L54-1)^1/14+1)</f>
         <v>705.22141695045218</v>
       </c>
-      <c r="N69" s="40">
-        <f t="shared" ref="N69" si="22">N68*((N68/N54-1)^1/14+1)</f>
+      <c r="N69" s="35">
+        <f t="shared" ref="N69:N70" si="28">N68*((N68/N54-1)^1/14+1)</f>
         <v>581.0585374926394</v>
       </c>
-      <c r="O69" s="40">
-        <f t="shared" ref="O69" si="23">O68*((O68/O54-1)^1/14+1)</f>
+      <c r="O69" s="35">
+        <f t="shared" ref="O69:O70" si="29">O68*((O68/O54-1)^1/14+1)</f>
         <v>1155.3131586861123</v>
       </c>
-      <c r="P69" s="40">
-        <f t="shared" ref="P69" si="24">P68*((P68/P54-1)^1/14+1)</f>
+      <c r="P69" s="35">
+        <f t="shared" ref="P69:P70" si="30">P68*((P68/P54-1)^1/14+1)</f>
         <v>641.31773514040867</v>
       </c>
-      <c r="R69" s="40">
-        <f t="shared" si="13"/>
+      <c r="R69" s="35">
+        <f t="shared" si="19"/>
         <v>44.539465008508614</v>
       </c>
-      <c r="S69" s="40">
-        <f t="shared" si="14"/>
+      <c r="S69" s="35">
+        <f t="shared" si="20"/>
         <v>180.20041655804107</v>
       </c>
-      <c r="T69" s="40">
-        <f t="shared" si="15"/>
+      <c r="T69" s="35">
+        <f t="shared" si="21"/>
         <v>63.903681810043508</v>
       </c>
-      <c r="V69" s="40">
-        <f t="shared" si="16"/>
+      <c r="V69" s="35">
+        <f t="shared" si="22"/>
         <v>268.0585374926394</v>
       </c>
-      <c r="W69" s="40">
-        <f t="shared" si="17"/>
+      <c r="W69" s="35">
+        <f t="shared" si="23"/>
         <v>194.31315868611227</v>
       </c>
-      <c r="X69" s="40">
-        <f t="shared" si="18"/>
+      <c r="X69" s="35">
+        <f t="shared" si="24"/>
         <v>224.31773514040867</v>
       </c>
       <c r="Z69">
@@ -47165,14 +47284,77 @@
         <v>417</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J72" s="39" t="s">
+    <row r="70" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="33">
+        <f>A69+1</f>
+        <v>44569</v>
+      </c>
+      <c r="J70" s="35">
+        <f t="shared" si="25"/>
+        <v>640.13955872888482</v>
+      </c>
+      <c r="K70" s="35">
+        <f t="shared" si="26"/>
+        <v>1361.3373989548927</v>
+      </c>
+      <c r="L70" s="35">
+        <f t="shared" si="27"/>
+        <v>715.46977099636126</v>
+      </c>
+      <c r="N70" s="35">
+        <f t="shared" si="28"/>
+        <v>604.91034230454432</v>
+      </c>
+      <c r="O70" s="35">
+        <f t="shared" si="29"/>
+        <v>1177.6743745738702</v>
+      </c>
+      <c r="P70" s="35">
+        <f t="shared" si="30"/>
+        <v>656.71296200621623</v>
+      </c>
+      <c r="R70" s="35">
+        <f t="shared" ref="R70" si="31">J70-N70</f>
+        <v>35.229216424340507</v>
+      </c>
+      <c r="S70" s="35">
+        <f t="shared" ref="S70" si="32">K70-O70</f>
+        <v>183.66302438102252</v>
+      </c>
+      <c r="T70" s="35">
+        <f t="shared" ref="T70" si="33">L70-P70</f>
+        <v>58.756808990145032</v>
+      </c>
+      <c r="V70" s="35">
+        <f t="shared" ref="V70" si="34">N70-Z70</f>
+        <v>295.91034230454432</v>
+      </c>
+      <c r="W70" s="35">
+        <f t="shared" ref="W70" si="35">O70-AA70</f>
+        <v>162.67437457387018</v>
+      </c>
+      <c r="X70" s="35">
+        <f t="shared" ref="X70" si="36">P70-AB70</f>
+        <v>235.71296200621623</v>
+      </c>
+      <c r="Z70" s="13">
+        <v>309</v>
+      </c>
+      <c r="AA70" s="17">
+        <v>1015</v>
+      </c>
+      <c r="AB70">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J73" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47183,7 +47365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B90EC-D1F1-4B32-915D-650B6834011C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -47198,8 +47380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E17FB4-6F65-4BBF-95CA-B21D0463F66B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47214,7 +47396,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
